--- a/paralg/u1/a2/a2.xlsx
+++ b/paralg/u1/a2/a2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITZeug\Parallele-Systeme\paralg\u1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITZeug\Parallele-Systeme\paralg\u1\a2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
     <definedName name="sumx2" localSheetId="0">Data!$I$2</definedName>
     <definedName name="sumxy" localSheetId="0">Data!$G$2</definedName>
     <definedName name="sumy" localSheetId="0">Data!$I$1</definedName>
-    <definedName name="T_n_1" localSheetId="0">Data!$E$5</definedName>
+    <definedName name="T_n_1" localSheetId="0">Data!$E$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -207,7 +207,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -344,11 +343,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193671864"/>
-        <c:axId val="193673824"/>
+        <c:axId val="381561992"/>
+        <c:axId val="381555720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193671864"/>
+        <c:axId val="381561992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,12 +412,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193673824"/>
+        <c:crossAx val="381555720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193673824"/>
+        <c:axId val="381555720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -483,7 +482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193671864"/>
+        <c:crossAx val="381561992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -695,11 +694,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193674216"/>
-        <c:axId val="193672256"/>
+        <c:axId val="381554544"/>
+        <c:axId val="381552584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193674216"/>
+        <c:axId val="381554544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,12 +818,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193672256"/>
+        <c:crossAx val="381552584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193672256"/>
+        <c:axId val="381552584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193674216"/>
+        <c:crossAx val="381554544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1161,11 +1160,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193667160"/>
-        <c:axId val="193669120"/>
+        <c:axId val="381562776"/>
+        <c:axId val="381556112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193667160"/>
+        <c:axId val="381562776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,12 +1284,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193669120"/>
+        <c:crossAx val="381556112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193669120"/>
+        <c:axId val="381556112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193667160"/>
+        <c:crossAx val="381562776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1696,11 +1695,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193670296"/>
-        <c:axId val="193667944"/>
+        <c:axId val="381556896"/>
+        <c:axId val="381554936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193670296"/>
+        <c:axId val="381556896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,12 +1819,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193667944"/>
+        <c:crossAx val="381554936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193667944"/>
+        <c:axId val="381554936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +1949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193670296"/>
+        <c:crossAx val="381556896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2257,11 +2256,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348533080"/>
-        <c:axId val="348533472"/>
+        <c:axId val="381557288"/>
+        <c:axId val="381555328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348533080"/>
+        <c:axId val="381557288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2321,6 +2320,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2381,12 +2381,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348533472"/>
+        <c:crossAx val="381555328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348533472"/>
+        <c:axId val="381555328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,6 +2451,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2511,7 +2512,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348533080"/>
+        <c:crossAx val="381557288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2525,6 +2526,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2711,28 +2713,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>123.20070600000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6413606428570802</c:v>
+                  <c:v>67.241713642857178</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9633921428571739</c:v>
+                  <c:v>40.694251285714245</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70679639285714302</c:v>
+                  <c:v>28.170930035714321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.0035882571428658</c:v>
+                  <c:v>15.964467228571408</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36275464285714065</c:v>
+                  <c:v>14.224119928571412</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0600582321428647</c:v>
+                  <c:v>7.6679443035714172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.1212495571428462</c:v>
+                  <c:v>0.19069247142856227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2747,11 +2749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348534648"/>
-        <c:axId val="348533864"/>
+        <c:axId val="381556504"/>
+        <c:axId val="381557680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348534648"/>
+        <c:axId val="381556504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,12 +2880,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348533864"/>
+        <c:crossAx val="381557680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348533864"/>
+        <c:axId val="381557680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3009,7 +3011,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348534648"/>
+        <c:crossAx val="381556504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3093,6 +3095,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3304,28 +3307,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1023.0581069999999</c:v>
+                  <c:v>899.85740099999987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>514.86509635714287</c:v>
+                  <c:v>453.26474335714278</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>344.35541185714283</c:v>
+                  <c:v>306.62455271428576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>259.10056960714286</c:v>
+                  <c:v>231.63643596428568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>207.94766425714286</c:v>
+                  <c:v>189.97960877142859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>173.84572735714286</c:v>
+                  <c:v>159.98436207142859</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131.21830623214285</c:v>
+                  <c:v>122.49030369642857</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.64185355714285</c:v>
+                  <c:v>103.32991152857144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3406,28 +3409,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1023.0581069999999</c:v>
+                  <c:v>899.85740099999987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>511.52905349999997</c:v>
+                  <c:v>449.92870049999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>341.01936899999998</c:v>
+                  <c:v>299.95246700000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>255.76452674999999</c:v>
+                  <c:v>224.96435024999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>204.61162139999999</c:v>
+                  <c:v>179.9714802</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170.50968449999999</c:v>
+                  <c:v>149.97623350000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>127.88226337499999</c:v>
+                  <c:v>112.48217512499998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102.30581069999999</c:v>
+                  <c:v>89.985740100000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3442,11 +3445,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348537784"/>
-        <c:axId val="348534256"/>
+        <c:axId val="381561208"/>
+        <c:axId val="381558072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348537784"/>
+        <c:axId val="381561208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3506,6 +3509,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3566,12 +3570,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348534256"/>
+        <c:crossAx val="381558072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348534256"/>
+        <c:axId val="381558072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3631,6 +3635,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3691,7 +3696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348537784"/>
+        <c:crossAx val="381561208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3705,6 +3710,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8190,7 +8196,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8332,7 +8338,7 @@
         <v>1023.0581069999999</v>
       </c>
       <c r="F5">
-        <f>$E$2/E5</f>
+        <f>T_n_1/E5</f>
         <v>0.87957604249745713</v>
       </c>
       <c r="G5">
@@ -8344,7 +8350,7 @@
         <v>1023.0581069999999</v>
       </c>
       <c r="I5">
-        <f>E5*A5-$E$2</f>
+        <f>E5*A5-T_n_1</f>
         <v>123.20070599999997</v>
       </c>
       <c r="J5" t="e">
@@ -8353,19 +8359,19 @@
       </c>
       <c r="K5">
         <f>L5+M5</f>
-        <v>1023.0581069999999</v>
+        <v>899.85740099999987</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L12" si="0">ROUNDUP(n/A5,0)*T_n_1/n</f>
-        <v>1023.0581069999999</v>
+        <v>899.85740099999987</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M12" si="1">n*ROUNDUP(LOG10(A5),0)*(alpha+m*n*beta)</f>
+        <f>n*ROUNDUP(LOG(A5,2),0)*(alpha+m*n*beta)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O11" si="2">E5-K5</f>
-        <v>0</v>
+        <f t="shared" ref="O5:O11" si="1">E5-K5</f>
+        <v>123.20070600000008</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -8382,44 +8388,44 @@
         <v>523.64355699999999</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E12" si="3">MIN(B6:D6)</f>
+        <f t="shared" ref="E6:E12" si="2">MIN(B6:D6)</f>
         <v>520.50645699999995</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F12" si="4">$E$2/E6</f>
+        <f>T_n_1/E6</f>
         <v>1.7288112162650848</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G12" si="5">F6/A6</f>
+        <f t="shared" ref="G6:G12" si="3">F6/A6</f>
         <v>0.86440560813254241</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H12" si="6">E6*A6</f>
+        <f t="shared" ref="H6:H12" si="4">E6*A6</f>
         <v>1041.0129139999999</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I12" si="7">E6*A6-$E$2</f>
+        <f>E6*A6-T_n_1</f>
         <v>141.15551299999993</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J12" si="8">(1/F6-1/A6)/(1-1/A6)</f>
+        <f t="shared" ref="J6:J12" si="5">(1/F6-1/A6)/(1-1/A6)</f>
         <v>0.15686431299352055</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K12" si="9">L6+M6</f>
-        <v>514.86509635714287</v>
+        <f t="shared" ref="K6:K12" si="6">L6+M6</f>
+        <v>453.26474335714278</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>511.52905349999997</v>
+        <v>449.92870049999993</v>
       </c>
       <c r="M6">
+        <f>n*ROUNDUP(LOG(A6,2),0)*(alpha+m*n*beta)</f>
+        <v>3.3360428571428602</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="1"/>
-        <v>3.3360428571428602</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="2"/>
-        <v>5.6413606428570802</v>
+        <v>67.241713642857178</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -8436,44 +8442,44 @@
         <v>347.49315999999999</v>
       </c>
       <c r="E7">
+        <f t="shared" si="2"/>
+        <v>347.318804</v>
+      </c>
+      <c r="F7">
+        <f>T_n_1/E7</f>
+        <v>2.5908686504632787</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="3"/>
-        <v>347.318804</v>
-      </c>
-      <c r="F7">
+        <v>0.86362288348775962</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="4"/>
-        <v>2.5908686504632787</v>
-      </c>
-      <c r="G7">
+        <v>1041.956412</v>
+      </c>
+      <c r="I7">
+        <f>E7*A7-T_n_1</f>
+        <v>142.09901100000002</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="5"/>
-        <v>0.86362288348775962</v>
-      </c>
-      <c r="H7">
+        <v>7.8956405116014608E-2</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="6"/>
-        <v>1041.956412</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="7"/>
-        <v>142.09901100000002</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="8"/>
-        <v>7.8956405116014608E-2</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="9"/>
-        <v>344.35541185714283</v>
+        <v>306.62455271428576</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>341.01936899999998</v>
+        <v>299.95246700000001</v>
       </c>
       <c r="M7">
+        <f>n*ROUNDUP(LOG(A7,2),0)*(alpha+m*n*beta)</f>
+        <v>6.6720857142857204</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="1"/>
-        <v>3.3360428571428602</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="2"/>
-        <v>2.9633921428571739</v>
+        <v>40.694251285714245</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -8490,44 +8496,44 @@
         <v>260.03835299999997</v>
       </c>
       <c r="E8">
+        <f t="shared" si="2"/>
+        <v>259.807366</v>
+      </c>
+      <c r="F8">
+        <f>T_n_1/E8</f>
+        <v>3.4635561525996148</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="3"/>
-        <v>259.807366</v>
-      </c>
-      <c r="F8">
+        <v>0.8658890381499037</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="4"/>
-        <v>3.4635561525996148</v>
-      </c>
-      <c r="G8">
+        <v>1039.229464</v>
+      </c>
+      <c r="I8">
+        <f>E8*A8-T_n_1</f>
+        <v>139.37206300000003</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="5"/>
-        <v>0.8658890381499037</v>
-      </c>
-      <c r="H8">
+        <v>5.1627462619861619E-2</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="6"/>
-        <v>1039.229464</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="7"/>
-        <v>139.37206300000003</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="8"/>
-        <v>5.1627462619861619E-2</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="9"/>
-        <v>259.10056960714286</v>
+        <v>231.63643596428568</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>255.76452674999999</v>
+        <v>224.96435024999997</v>
       </c>
       <c r="M8">
+        <f>n*ROUNDUP(LOG(A8,2),0)*(alpha+m*n*beta)</f>
+        <v>6.6720857142857204</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="1"/>
-        <v>3.3360428571428602</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
-        <v>0.70679639285714302</v>
+        <v>28.170930035714321</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -8544,44 +8550,44 @@
         <v>205.944076</v>
       </c>
       <c r="E9">
+        <f t="shared" si="2"/>
+        <v>205.944076</v>
+      </c>
+      <c r="F9">
+        <f>T_n_1/E9</f>
+        <v>4.3694260037856099</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="3"/>
-        <v>205.944076</v>
-      </c>
-      <c r="F9">
+        <v>0.87388520075712195</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="4"/>
-        <v>4.3694260037856099</v>
-      </c>
-      <c r="G9">
+        <v>1029.72038</v>
+      </c>
+      <c r="I9">
+        <f>E9*A9-T_n_1</f>
+        <v>129.862979</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="5"/>
-        <v>0.87388520075712195</v>
-      </c>
-      <c r="H9">
+        <v>3.607876616219554E-2</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="6"/>
-        <v>1029.72038</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="7"/>
-        <v>129.862979</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="8"/>
-        <v>3.607876616219554E-2</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="9"/>
-        <v>207.94766425714286</v>
+        <v>189.97960877142859</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>204.61162139999999</v>
+        <v>179.9714802</v>
       </c>
       <c r="M9">
+        <f>n*ROUNDUP(LOG(A9,2),0)*(alpha+m*n*beta)</f>
+        <v>10.008128571428582</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="1"/>
-        <v>3.3360428571428602</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>-2.0035882571428658</v>
+        <v>15.964467228571408</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -8598,44 +8604,44 @@
         <v>174.208482</v>
       </c>
       <c r="E10">
+        <f t="shared" si="2"/>
+        <v>174.208482</v>
+      </c>
+      <c r="F10">
+        <f>T_n_1/E10</f>
+        <v>5.1654052125889027</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="3"/>
-        <v>174.208482</v>
-      </c>
-      <c r="F10">
+        <v>0.86090086876481708</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="4"/>
-        <v>5.1654052125889027</v>
-      </c>
-      <c r="G10">
+        <v>1045.250892</v>
+      </c>
+      <c r="I10">
+        <f>E10*A10-T_n_1</f>
+        <v>145.39349100000004</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="5"/>
-        <v>0.86090086876481708</v>
-      </c>
-      <c r="H10">
+        <v>3.2314784728875043E-2</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="6"/>
-        <v>1045.250892</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="7"/>
-        <v>145.39349100000004</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="8"/>
-        <v>3.2314784728875043E-2</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="9"/>
-        <v>173.84572735714286</v>
+        <v>159.98436207142859</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>170.50968449999999</v>
+        <v>149.97623350000001</v>
       </c>
       <c r="M10">
+        <f>n*ROUNDUP(LOG(A10,2),0)*(alpha+m*n*beta)</f>
+        <v>10.008128571428582</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="1"/>
-        <v>3.3360428571428602</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="2"/>
-        <v>0.36275464285714065</v>
+        <v>14.224119928571412</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -8652,44 +8658,44 @@
         <v>130.28815</v>
       </c>
       <c r="E11">
+        <f t="shared" si="2"/>
+        <v>130.15824799999999</v>
+      </c>
+      <c r="F11">
+        <f>T_n_1/E11</f>
+        <v>6.9135641791982332</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="3"/>
-        <v>130.15824799999999</v>
-      </c>
-      <c r="F11">
+        <v>0.86419552239977915</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="4"/>
-        <v>6.9135641791982332</v>
-      </c>
-      <c r="G11">
+        <v>1041.2659839999999</v>
+      </c>
+      <c r="I11">
+        <f>E11*A11-T_n_1</f>
+        <v>141.40858299999991</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="5"/>
-        <v>0.86419552239977915</v>
-      </c>
-      <c r="H11">
+        <v>2.244936377742492E-2</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="6"/>
-        <v>1041.2659839999999</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="7"/>
-        <v>141.40858299999991</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="8"/>
-        <v>2.244936377742492E-2</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="9"/>
-        <v>131.21830623214285</v>
+        <v>122.49030369642857</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>127.88226337499999</v>
+        <v>112.48217512499998</v>
       </c>
       <c r="M11">
+        <f>n*ROUNDUP(LOG(A11,2),0)*(alpha+m*n*beta)</f>
+        <v>10.008128571428582</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="1"/>
-        <v>3.3360428571428602</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="2"/>
-        <v>-1.0600582321428647</v>
+        <v>7.6679443035714172</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -8706,44 +8712,44 @@
         <v>105.490179</v>
       </c>
       <c r="E12">
+        <f t="shared" si="2"/>
+        <v>103.52060400000001</v>
+      </c>
+      <c r="F12">
+        <f>T_n_1/E12</f>
+        <v>8.692543959654639</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="3"/>
-        <v>103.52060400000001</v>
-      </c>
-      <c r="F12">
+        <v>0.86925439596546394</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="4"/>
-        <v>8.692543959654639</v>
-      </c>
-      <c r="G12">
+        <v>1035.20604</v>
+      </c>
+      <c r="I12">
+        <f>E12*A12-T_n_1</f>
+        <v>135.34863900000005</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="5"/>
-        <v>0.86925439596546394</v>
-      </c>
-      <c r="H12">
+        <v>1.6712356479987079E-2</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="6"/>
-        <v>1035.20604</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="7"/>
-        <v>135.34863900000005</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="8"/>
-        <v>1.6712356479987079E-2</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="9"/>
-        <v>105.64185355714285</v>
+        <v>103.32991152857144</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>102.30581069999999</v>
+        <v>89.985740100000001</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
-        <v>3.3360428571428602</v>
+        <f>n*ROUNDUP(LOG(A12,2),0)*(alpha+m*n*beta)</f>
+        <v>13.344171428571441</v>
       </c>
       <c r="O12">
         <f>E12-K12</f>
-        <v>-2.1212495571428462</v>
+        <v>0.19069247142856227</v>
       </c>
     </row>
   </sheetData>
